--- a/lab-9-10.xlsx
+++ b/lab-9-10.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkeigenkai/Documents/Политех/Програмная Инженерия/softEng/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkeigenkai/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{293D9AB3-40AF-8746-9D6D-B53B31D18CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A220550C-F1C6-6E4B-B93B-934621C5A4AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29140" yWindow="-7120" windowWidth="29140" windowHeight="20000" activeTab="5" xr2:uid="{B139FB28-2034-5B43-90ED-BFDA595335E9}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Тест-кейс 3" sheetId="5" r:id="rId5"/>
     <sheet name="Отчет" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -636,35 +636,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -672,13 +654,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -691,14 +668,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,7 +681,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -745,9 +713,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -760,6 +725,41 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1264,60 +1264,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="40">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="25">
         <v>44009</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="15"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="4"/>
@@ -1325,15 +1325,15 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="4"/>
@@ -1341,15 +1341,15 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="41" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="4"/>
@@ -1357,15 +1357,15 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="41" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="4"/>
@@ -1373,15 +1373,15 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="4"/>
@@ -1389,16 +1389,16 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25" t="s">
+      <c r="E9" s="62"/>
+      <c r="F9" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="4"/>
@@ -1406,16 +1406,16 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25" t="s">
+      <c r="E10" s="62"/>
+      <c r="F10" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="4"/>
@@ -1423,16 +1423,16 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="25" t="s">
+      <c r="E11" s="63"/>
+      <c r="F11" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="4"/>
@@ -1440,38 +1440,38 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="F12" s="18"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="41" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="4"/>
@@ -1479,120 +1479,120 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="30" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="63"/>
+      <c r="D15" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25" t="s">
+      <c r="E15" s="62"/>
+      <c r="F15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="31"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="23" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25" t="s">
+      <c r="E16" s="62"/>
+      <c r="F16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="31"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="41" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="31"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="62"/>
+      <c r="D18" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25" t="s">
+      <c r="E18" s="62"/>
+      <c r="F18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="31"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="H19" s="31"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
-      <c r="H20" s="31"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="25" t="s">
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="33" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="25" t="s">
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H22" s="11"/>
@@ -1600,14 +1600,14 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="25" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H23" s="11"/>
@@ -1615,54 +1615,37 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="41" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="25" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="31"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="25" t="s">
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="31"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -1670,6 +1653,23 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1693,131 +1693,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="27" t="s">
         <v>49</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="27" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="44"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="30" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="50"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="27" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="32">
         <v>44009</v>
       </c>
-      <c r="E4" s="44"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="26" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="73"/>
+      <c r="C10" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="37">
         <v>3</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="37">
         <v>0</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="37">
         <v>0</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H10" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="31">
+      <c r="A12" s="19">
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1826,12 +1826,12 @@
       <c r="C12" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="19" t="s">
         <v>75</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="21" t="s">
         <v>74</v>
       </c>
       <c r="H12" s="4"/>
@@ -1871,80 +1871,80 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="59" t="s">
+      <c r="G14" s="39" t="s">
         <v>83</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="61"/>
+      <c r="E21" s="41"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="61"/>
+      <c r="E22" s="41"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="62"/>
+      <c r="E23" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1974,126 +1974,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="43" t="s">
         <v>49</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="64"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="43" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="64"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="30" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="50"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="43" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="45">
         <v>44009</v>
       </c>
-      <c r="E4" s="64"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="26" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="63" t="s">
+      <c r="B10" s="73"/>
+      <c r="C10" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="48">
         <v>3</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="48">
         <v>0</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="48">
         <v>0</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2112,96 +2112,96 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="21" t="s">
         <v>74</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.2">
-      <c r="A13" s="70">
+      <c r="A13" s="50">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="50" t="s">
         <v>75</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="71" t="s">
+      <c r="G13" s="51" t="s">
         <v>77</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="70">
+      <c r="A14" s="50">
         <v>3</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="50" t="s">
         <v>75</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="59" t="s">
+      <c r="G14" s="39" t="s">
         <v>83</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="61"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="61"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="61"/>
+      <c r="E20" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2218,7 +2218,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2231,133 +2231,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="43" t="s">
         <v>49</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="64"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="43" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="64"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="30" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="50"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="43" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="45">
         <v>44009</v>
       </c>
-      <c r="E4" s="64"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="26" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="73"/>
+      <c r="C10" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="37">
         <v>5</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="37">
         <v>0</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="37">
         <v>0</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="74">
+      <c r="H10" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.2">
-      <c r="A12" s="31">
+      <c r="A12" s="19">
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2400,13 +2400,13 @@
       <c r="A14" s="8">
         <v>3</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="28" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="54" t="s">
         <v>75</v>
       </c>
       <c r="E14" s="5"/>
@@ -2481,31 +2481,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="17" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="55" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="77">
+      <c r="B3" s="56">
         <v>44009</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="29" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="57">
         <v>1</v>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="58">
         <v>1</v>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       <c r="B9" s="5">
         <v>0</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="58">
         <v>0</v>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="26" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="17" t="s">
         <v>109</v>
       </c>
     </row>

--- a/lab-9-10.xlsx
+++ b/lab-9-10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkeigenkai/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkeigenkai/Documents/Политех/Програмная Инженерия/softEng/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A220550C-F1C6-6E4B-B93B-934621C5A4AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D29DFBF-DC61-BE47-9E4F-7BF29DD4417C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29140" yWindow="-7120" windowWidth="29140" windowHeight="20000" activeTab="5" xr2:uid="{B139FB28-2034-5B43-90ED-BFDA595335E9}"/>
+    <workbookView xWindow="-29140" yWindow="-7120" windowWidth="29140" windowHeight="20000" activeTab="4" xr2:uid="{B139FB28-2034-5B43-90ED-BFDA595335E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="1" r:id="rId1"/>
@@ -725,15 +725,8 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -748,6 +741,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1264,28 +1264,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
       <c r="F1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="73"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="25">
         <v>44009</v>
       </c>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="26" t="s">
         <v>43</v>
       </c>
@@ -1326,10 +1326,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="26" t="s">
         <v>43</v>
       </c>
@@ -1342,10 +1342,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="62"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="26" t="s">
         <v>43</v>
       </c>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="62"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="26" t="s">
         <v>43</v>
       </c>
@@ -1374,10 +1374,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="62"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="26" t="s">
         <v>43</v>
       </c>
@@ -1390,14 +1390,14 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="61" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="62"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1407,14 +1407,14 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="61" t="s">
+      <c r="C10" s="60"/>
+      <c r="D10" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="62"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="16" t="s">
         <v>30</v>
       </c>
@@ -1424,14 +1424,14 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="61" t="s">
+      <c r="C11" s="69"/>
+      <c r="D11" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="63"/>
+      <c r="E11" s="69"/>
       <c r="F11" s="16" t="s">
         <v>30</v>
       </c>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="26" t="s">
         <v>43</v>
       </c>
@@ -1480,14 +1480,14 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="61" t="s">
+      <c r="C15" s="69"/>
+      <c r="D15" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="62"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="16" t="s">
         <v>30</v>
       </c>
@@ -1497,14 +1497,14 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="61" t="s">
+      <c r="C16" s="69"/>
+      <c r="D16" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="62"/>
+      <c r="E16" s="60"/>
       <c r="F16" s="16" t="s">
         <v>30</v>
       </c>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="62"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="26" t="s">
         <v>43</v>
       </c>
@@ -1530,14 +1530,14 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="61" t="s">
+      <c r="C18" s="60"/>
+      <c r="D18" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="62"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="16" t="s">
         <v>30</v>
       </c>
@@ -1571,11 +1571,11 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="17"/>
       <c r="F21" s="16" t="s">
         <v>30</v>
@@ -1586,11 +1586,11 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
       <c r="E22" s="17"/>
       <c r="F22" s="16" t="s">
         <v>30</v>
@@ -1631,11 +1631,11 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
       <c r="E25" s="24"/>
       <c r="F25" s="16" t="s">
         <v>30</v>
@@ -1646,6 +1646,23 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -1653,23 +1670,6 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1770,7 +1770,7 @@
       <c r="A10" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="27" t="s">
         <v>63</v>
       </c>
@@ -2051,7 +2051,7 @@
       <c r="A10" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="43" t="s">
         <v>63</v>
       </c>
@@ -2217,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717D1915-326A-FB45-8801-E02EF641D086}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2264,9 +2264,7 @@
       <c r="C3" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2310,7 +2308,7 @@
       <c r="A10" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="27" t="s">
         <v>63</v>
       </c>
@@ -2470,7 +2468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACC3B9A-ED9F-804E-9BBE-B9857B9E9B75}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
